--- a/hello.xlsx
+++ b/hello.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>Tren InterUrbano Mexico Toluca</t>
-  </si>
-  <si>
-    <t>CORSA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+  <si>
+    <t>ARCELORMITTAL</t>
   </si>
   <si>
     <t>Folio</t>
@@ -52,16 +49,55 @@
     <t>RMH-0001</t>
   </si>
   <si>
-    <t>TALLER DE COREMAN</t>
-  </si>
-  <si>
-    <t>Varilla #4</t>
+    <t>TALLER DE SMC</t>
+  </si>
+  <si>
+    <t>Varilla #9</t>
+  </si>
+  <si>
+    <t>Varilla #5</t>
   </si>
   <si>
     <t>RMH-0002</t>
   </si>
   <si>
-    <t>RMH-0003</t>
+    <t>Varilla #11</t>
+  </si>
+  <si>
+    <t>Varilla #7</t>
+  </si>
+  <si>
+    <t>Fecha de Envio</t>
+  </si>
+  <si>
+    <t>Frente</t>
+  </si>
+  <si>
+    <t>Apoyo</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Peso Asignado en Kg</t>
+  </si>
+  <si>
+    <t>SMH-0001</t>
+  </si>
+  <si>
+    <t>Viaducto 1A</t>
+  </si>
+  <si>
+    <t>1A-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capitel I</t>
+  </si>
+  <si>
+    <t>SMH-0002</t>
+  </si>
+  <si>
+    <t>1A-2</t>
   </si>
   <si>
     <t>Peso Total en Kg</t>
@@ -71,17 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="25"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,27 +146,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -160,15 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,13 +475,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -491,151 +502,357 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="A3" t="s">
         <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>330.78</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>42542</v>
+      </c>
+      <c r="I3">
+        <v>40500</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>1023</v>
+        <v>535.87</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4">
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="I4">
-        <v>12222</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5">
-        <v>1023</v>
+        <v>562.66</v>
       </c>
       <c r="G5">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="I5">
-        <v>12222</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6">
-        <v>1023</v>
+        <v>517.05</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6">
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="I6">
-        <v>12222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="F7">
+        <v>144.9</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>42542</v>
+      </c>
+      <c r="I7">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>803.81</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>42542</v>
+      </c>
+      <c r="I8">
+        <v>67000</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>36666</v>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>46700</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
-  <si>
-    <t>ARCELORMITTAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+  <si>
+    <t>DEACERO</t>
   </si>
   <si>
     <t>Folio</t>
@@ -46,27 +46,24 @@
     <t>Peso Recibido en Kg</t>
   </si>
   <si>
-    <t>RMH-0001</t>
-  </si>
-  <si>
-    <t>TALLER DE SMC</t>
-  </si>
-  <si>
-    <t>Varilla #9</t>
+    <t>RMH-0004</t>
+  </si>
+  <si>
+    <t>TALLER DE COREMAN</t>
   </si>
   <si>
     <t>Varilla #5</t>
   </si>
   <si>
-    <t>RMH-0002</t>
-  </si>
-  <si>
-    <t>Varilla #11</t>
+    <t>21/06/2016</t>
   </si>
   <si>
     <t>Varilla #7</t>
   </si>
   <si>
+    <t>Varilla #10</t>
+  </si>
+  <si>
     <t>Fecha de Envio</t>
   </si>
   <si>
@@ -80,24 +77,6 @@
   </si>
   <si>
     <t>Peso Asignado en Kg</t>
-  </si>
-  <si>
-    <t>SMH-0001</t>
-  </si>
-  <si>
-    <t>Viaducto 1A</t>
-  </si>
-  <si>
-    <t>1A-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Capitel I</t>
-  </si>
-  <si>
-    <t>SMH-0002</t>
-  </si>
-  <si>
-    <t>1A-2</t>
   </si>
   <si>
     <t>Peso Total en Kg</t>
@@ -475,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,25 +514,25 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>543</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>330.78</v>
+        <v>964.57</v>
       </c>
       <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>42542</v>
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>40500</v>
+        <v>67070</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -564,25 +543,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>123</v>
+        <v>543</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>535.87</v>
+        <v>144.9</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4">
-        <v>42542</v>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>40500</v>
+        <v>67070</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -593,261 +572,76 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>543</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>562.66</v>
+        <v>626.57</v>
       </c>
       <c r="G5">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>42542</v>
+      <c r="H5" t="s">
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
+        <v>67070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>517.05</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>42542</v>
-      </c>
-      <c r="I6">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>144.9</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>42542</v>
-      </c>
-      <c r="I7">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>150</v>
-      </c>
-      <c r="D8">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>803.81</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>42542</v>
-      </c>
-      <c r="I8">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>46700</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>25000</v>
+      <c r="B10">
+        <v>46770</v>
       </c>
     </row>
   </sheetData>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
-  <si>
-    <t>DEACERO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+  <si>
+    <t>CORSA</t>
   </si>
   <si>
     <t>Folio</t>
@@ -46,22 +46,19 @@
     <t>Peso Recibido en Kg</t>
   </si>
   <si>
-    <t>RMH-0004</t>
+    <t>RMH-0001</t>
   </si>
   <si>
     <t>TALLER DE COREMAN</t>
   </si>
   <si>
-    <t>Varilla #5</t>
-  </si>
-  <si>
-    <t>21/06/2016</t>
-  </si>
-  <si>
-    <t>Varilla #7</t>
-  </si>
-  <si>
-    <t>Varilla #10</t>
+    <t>Varilla #3</t>
+  </si>
+  <si>
+    <t>22/06/2016</t>
+  </si>
+  <si>
+    <t>Varilla #4</t>
   </si>
   <si>
     <t>Fecha de Envio</t>
@@ -77,6 +74,30 @@
   </si>
   <si>
     <t>Peso Asignado en Kg</t>
+  </si>
+  <si>
+    <t>SMH-0001</t>
+  </si>
+  <si>
+    <t>Estacion Zinacantepec</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pila III</t>
+  </si>
+  <si>
+    <t>SMH-0002</t>
+  </si>
+  <si>
+    <t>Viaducto 1C</t>
+  </si>
+  <si>
+    <t>1C-6I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pila II</t>
   </si>
   <si>
     <t>Peso Total en Kg</t>
@@ -454,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,25 +535,25 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>543</v>
+        <v>123</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>964.57</v>
+        <v>342.38</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3">
-        <v>67070</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -543,16 +564,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>543</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>144.9</v>
+        <v>360.03</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -561,87 +582,156 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>67070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>543</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>626.57</v>
-      </c>
-      <c r="G5">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>67070</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
+      <c r="H8">
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>46770</v>
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>4300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>4300</v>
       </c>
     </row>
   </sheetData>
